--- a/data/trans_bre/P16A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.471106459203934</v>
+        <v>1.499034666533016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.380170050061017</v>
+        <v>-0.170167607123295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1556481486167671</v>
+        <v>0.2067617624935757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.77075958241882</v>
+        <v>-0.5585919437071942</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6497169565431167</v>
+        <v>0.7073367106160475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2956718049379094</v>
+        <v>-0.1957217950798115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1310907176395988</v>
+        <v>-0.2199088665895998</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7824467282564048</v>
+        <v>-0.7283732684437275</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.030076263339412</v>
+        <v>5.099493338061307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.438329036102703</v>
+        <v>3.591010791319142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.15205616109248</v>
+        <v>4.200147882036482</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.596520982920281</v>
+        <v>7.084843046533098</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23.12418900456064</v>
+        <v>23.35777429973582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.753200488096686</v>
+        <v>5.544300617909411</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9.99437207986119</v>
+        <v>10.35593410317454</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14.81330679315552</v>
+        <v>19.32575190984889</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.232786117889829</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.973621422104833</v>
+        <v>1.973621422104834</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5521339048551093</v>
@@ -749,7 +749,7 @@
         <v>0.5243690420345807</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8547213346877957</v>
+        <v>0.854721334687796</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.354174259176361</v>
+        <v>-0.3646004931708554</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8792846095792266</v>
+        <v>-1.109370205978628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6337958897603841</v>
+        <v>-0.6177572119059731</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5468071817440889</v>
+        <v>-0.5900681795320487</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1671477618807009</v>
+        <v>-0.1319523536617893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1869484571571341</v>
+        <v>-0.2298615429020142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.221425613277366</v>
+        <v>-0.2560352790365755</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2118652261167701</v>
+        <v>-0.2405820059825333</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.873346806084728</v>
+        <v>3.693956467197807</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.318659832605147</v>
+        <v>3.886658906201384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.188644006987691</v>
+        <v>3.138602293442613</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.336626833999356</v>
+        <v>4.560038782147861</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.916307688770582</v>
+        <v>1.744623149055072</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.494176740302506</v>
+        <v>1.293915528412112</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.954165659280226</v>
+        <v>1.947042287200047</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.340943585987284</v>
+        <v>3.536659299285692</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.90223145395339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.138749730963864</v>
+        <v>4.138749730963863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.748134477633269</v>
@@ -849,7 +849,7 @@
         <v>0.7577099016356831</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8175325801394594</v>
+        <v>0.8175325801394588</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.426729579340742</v>
+        <v>2.601243500050368</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.015657772836223</v>
+        <v>3.016733124471934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.062566092648026</v>
+        <v>1.15252458404421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.159346728542095</v>
+        <v>1.222626129241869</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5626192060796331</v>
+        <v>0.6232021329660504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3850683411692214</v>
+        <v>0.4090671339462254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1481222396663985</v>
+        <v>0.1590261725857361</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.166528202395238</v>
+        <v>0.1633965111791154</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.37399839111811</v>
+        <v>7.541592628461467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.108519992847066</v>
+        <v>9.181973130483861</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.393505096576342</v>
+        <v>6.775543650623591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.628205863031432</v>
+        <v>6.862714680723959</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.735411748992857</v>
+        <v>3.820049393301738</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.049870257688293</v>
+        <v>2.109327186379871</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.570397902153393</v>
+        <v>1.751089197734317</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.824817357472704</v>
+        <v>1.949720092980255</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.315154732510177</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.266619240603072</v>
+        <v>5.266619240603069</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.480326822045605</v>
@@ -949,7 +949,7 @@
         <v>1.195596629392993</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5651209354514957</v>
+        <v>0.5651209354514954</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.157767077655312</v>
+        <v>4.757509770927567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.476848207007804</v>
+        <v>6.626169955638953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.195682844299225</v>
+        <v>4.903191128267195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.895321542557937</v>
+        <v>2.11467444830772</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5288734854425022</v>
+        <v>0.6383958762767998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7758547127048204</v>
+        <v>0.7613213894492852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5954866298013136</v>
+        <v>0.5705158681325981</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1881044033792185</v>
+        <v>0.1835981648037231</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.39191924001776</v>
+        <v>12.15359908989788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.02177641777046</v>
+        <v>14.30543510032311</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.09944281348561</v>
+        <v>12.22225853722963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.067649335534941</v>
+        <v>8.19101661492569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.783614241787208</v>
+        <v>3.268956890751532</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.66955502525641</v>
+        <v>2.766453878495864</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.188186438424196</v>
+        <v>2.34323688070016</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.061410393535357</v>
+        <v>1.078155139783403</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.194098910988792</v>
+        <v>6.55348314243984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.010452617807696</v>
+        <v>7.63122644304213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.36965150185076</v>
+        <v>12.69605593682999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.444641110016869</v>
+        <v>9.250086275698147</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5650394902963808</v>
+        <v>0.6748578836639437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6273563648223764</v>
+        <v>0.5839476167775212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.028887730224302</v>
+        <v>1.182933044396892</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6707009629366584</v>
+        <v>0.648696579954948</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.15694812024169</v>
+        <v>15.43935631403132</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.86222195840054</v>
+        <v>17.6531949073389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.02069043427562</v>
+        <v>21.98599220777631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.14065403597888</v>
+        <v>16.77456876812392</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.585384245493567</v>
+        <v>2.723655399442592</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.200277576574622</v>
+        <v>2.20009318846589</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.162211498188824</v>
+        <v>3.28418838846763</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.729344686638715</v>
+        <v>1.667183222201977</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>19.50836472984718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16.67724485992922</v>
+        <v>16.67724485992921</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.049049000202371</v>
@@ -1149,7 +1149,7 @@
         <v>1.899076878587405</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.406361203636693</v>
+        <v>1.406361203636692</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.137887457517728</v>
+        <v>4.786172685982218</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.173126124948949</v>
+        <v>8.520668196629815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.77093698366</v>
+        <v>13.77923063009561</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12.75584072727002</v>
+        <v>12.50895254126059</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.399391903523753</v>
+        <v>0.3562511183960466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6303798892354551</v>
+        <v>0.5575226123330889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.107441965754192</v>
+        <v>1.009717255613193</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9020086512343181</v>
+        <v>0.8546013560698997</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.65915451585297</v>
+        <v>15.46666157551424</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.26383047786956</v>
+        <v>20.77547328657196</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25.23259428223053</v>
+        <v>25.4839730193196</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.30866956353481</v>
+        <v>20.9310927584686</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.004900126801699</v>
+        <v>1.968671515221902</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.618163014364499</v>
+        <v>2.486670433825548</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.301625281820447</v>
+        <v>3.166028208281632</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.126728358586231</v>
+        <v>2.142925118686002</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.479962451167486</v>
+        <v>-3.07794708962254</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.6682794801193</v>
+        <v>9.375634300325517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.032773245023301</v>
+        <v>4.294952577519261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.876782148103191</v>
+        <v>9.569995429312831</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1420208538422296</v>
+        <v>-0.1598992799594864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5646744578282277</v>
+        <v>0.4855226145893489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2816010363736257</v>
+        <v>0.2166556176637842</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3262796774020752</v>
+        <v>0.3525917943721362</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.34749106996899</v>
+        <v>10.41262282213472</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.62250110962637</v>
+        <v>25.04292682914566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.45856165176543</v>
+        <v>17.28918328555742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.06415464391417</v>
+        <v>19.51929586052716</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9181404999033714</v>
+        <v>0.9179509698152519</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.363264496827557</v>
+        <v>2.31749144380673</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.538540167098714</v>
+        <v>1.415520826226796</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.9392050970080423</v>
+        <v>1.009763647375651</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>8.921381333323369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.817744662300839</v>
+        <v>8.817744662300843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.268962804296511</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.987055860302084</v>
+        <v>4.940478127292662</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.409274088596036</v>
+        <v>7.448440019969903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.407966029769426</v>
+        <v>7.435762858148405</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.436472306410755</v>
+        <v>7.535684863776313</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8916595422727565</v>
+        <v>0.9124182974502932</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.006275807796366</v>
+        <v>1.024902312618714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.05853898444035</v>
+        <v>1.080235980882225</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7996003587600375</v>
+        <v>0.8031433541270239</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.545783346431077</v>
+        <v>7.573051846059377</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.48717958776006</v>
+        <v>10.43560083564716</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.44457757383213</v>
+        <v>10.55114351176919</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.21954977345263</v>
+        <v>10.22658361393211</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.741492017328536</v>
+        <v>1.707777203923324</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.731816745701888</v>
+        <v>1.773531975133879</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.8067009427539</v>
+        <v>1.871467612182101</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.289949277442118</v>
+        <v>1.297709027208069</v>
       </c>
     </row>
     <row r="28">
